--- a/Data/Places of performance in the regions.xlsx
+++ b/Data/Places of performance in the regions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertocalabrese99/Desktop/Statistical learning/Statistical_Learning_Project/Data/Cleaned data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertocalabrese99/Desktop/Statistical learning/Statistical_Learning_Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915FF6A0-DB8E-FC42-9E5D-1D53A4B3C887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920BFBDC-5E9C-8149-A420-2704CC51E282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" activeTab="6" xr2:uid="{1F1F6805-2FDB-8F4F-9065-46E49BB6E294}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{1F1F6805-2FDB-8F4F-9065-46E49BB6E294}"/>
   </bookViews>
   <sheets>
     <sheet name="Attività cinematografica" sheetId="8" r:id="rId1"/>
@@ -42,9 +42,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="21">
-  <si>
-    <t>Regione</t>
-  </si>
   <si>
     <t>Liguria</t>
   </si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>Abruzzo</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
 </sst>
 </file>
@@ -487,15 +487,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D134216E-CFDC-554E-AB26-F143645EE1E9}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1">
         <v>2018</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>130</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>36</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>81</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>332</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>515</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>118</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>549</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>157</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>937</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>204</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>13</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>355</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>310</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>116</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>309</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>382</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>139</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>89</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <v>414</v>
@@ -923,14 +923,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>340</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>192</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>285</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>846</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1575</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>523</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>973</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>336</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>2533</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>727</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>57</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>1305</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>876</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>561</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>919</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>1409</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>521</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>312</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>53</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>1352</v>
@@ -1358,14 +1358,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1">
         <v>2018</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>245</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>94</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>209</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>460</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1068</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>344</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>572</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>247</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>1458</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>550</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>41</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <v>929</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>677</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>262</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>507</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
         <v>840</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>396</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>300</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1">
         <v>45</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <v>752</v>
@@ -1793,14 +1793,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -1820,7 +1820,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>234</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>71</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>75</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>210</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1063</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>351</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>372</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>218</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>2614</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>535</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>38</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>1068</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>187</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>149</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>193</v>
@@ -2120,7 +2120,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>1332</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>314</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>312</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>36</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>1018</v>
@@ -2228,14 +2228,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1842</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>567</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>621</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>4075</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>6263</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1991</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>3859</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>2262</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>9329</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3048</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>404</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>5707</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>3351</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>1150</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>4399</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>4683</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>1660</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>1485</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>392</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>4817</v>
@@ -2663,14 +2663,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F21"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>13</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -2730,7 +2730,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>35</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>49</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>36</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>21</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>31</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>48</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>16</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>17</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>38</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>34</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>30</v>
@@ -3097,15 +3097,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F47EF7-1F4A-9D43-B0F7-FC91BD146691}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1">
         <v>2018</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>87</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>166</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>50</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>143</v>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>322</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>69</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>139</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>41</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>70</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>171</v>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>33</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <v>56</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>175</v>
